--- a/src/main/resources/excel/sel_cont/sel_output.xlsx
+++ b/src/main/resources/excel/sel_cont/sel_output.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\Workspace\ExcelFromXMLObject\src\main\resources\excel\sel_cont\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71985320-0FDC-4F51-AFDE-2B038AF072C5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{144CD41A-2338-45A6-9E57-71F3BCF6BD38}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2370" yWindow="4170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7770" yWindow="3420" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,9 +43,6 @@
     <t>${test}</t>
   </si>
   <si>
-    <t>${hermano}</t>
-  </si>
-  <si>
     <t>${u1_col1}</t>
   </si>
   <si>
@@ -62,6 +59,9 @@
   </si>
   <si>
     <t>${u1_col4}</t>
+  </si>
+  <si>
+    <t>${test2}</t>
   </si>
   <si>
     <t/>
@@ -416,8 +416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
